--- a/fhir/ig/tei/0.2.1/CodeSystem-CSEspecialidadMed.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-CSEspecialidadMed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="175">
   <si>
     <t>Property</t>
   </si>
@@ -880,7 +880,9 @@
       <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -892,7 +894,9 @@
       <c r="C3" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -904,7 +908,9 @@
       <c r="C4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
@@ -916,7 +922,9 @@
       <c r="C5" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -928,7 +936,9 @@
       <c r="C6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
@@ -940,7 +950,9 @@
       <c r="C7" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
@@ -952,7 +964,9 @@
       <c r="C8" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -964,7 +978,9 @@
       <c r="C9" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
@@ -976,7 +992,9 @@
       <c r="C10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -988,7 +1006,9 @@
       <c r="C11" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
@@ -1000,7 +1020,9 @@
       <c r="C12" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -1012,7 +1034,9 @@
       <c r="C13" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -1024,7 +1048,9 @@
       <c r="C14" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1036,7 +1062,9 @@
       <c r="C15" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -1048,7 +1076,9 @@
       <c r="C16" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
@@ -1060,7 +1090,9 @@
       <c r="C17" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
@@ -1072,7 +1104,9 @@
       <c r="C18" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
@@ -1084,7 +1118,9 @@
       <c r="C19" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
@@ -1096,7 +1132,9 @@
       <c r="C20" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
@@ -1108,7 +1146,9 @@
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
@@ -1120,7 +1160,9 @@
       <c r="C22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
@@ -1132,7 +1174,9 @@
       <c r="C23" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
@@ -1144,7 +1188,9 @@
       <c r="C24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
@@ -1156,7 +1202,9 @@
       <c r="C25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
@@ -1168,7 +1216,9 @@
       <c r="C26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
@@ -1180,7 +1230,9 @@
       <c r="C27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
@@ -1192,7 +1244,9 @@
       <c r="C28" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
@@ -1204,7 +1258,9 @@
       <c r="C29" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
@@ -1216,7 +1272,9 @@
       <c r="C30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
@@ -1228,7 +1286,9 @@
       <c r="C31" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
@@ -1240,7 +1300,9 @@
       <c r="C32" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
@@ -1252,7 +1314,9 @@
       <c r="C33" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>103</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
@@ -1264,7 +1328,9 @@
       <c r="C34" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
@@ -1276,7 +1342,9 @@
       <c r="C35" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>107</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
@@ -1288,7 +1356,9 @@
       <c r="C36" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>109</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
@@ -1300,7 +1370,9 @@
       <c r="C37" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>111</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
@@ -1312,7 +1384,9 @@
       <c r="C38" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
@@ -1324,7 +1398,9 @@
       <c r="C39" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
@@ -1336,7 +1412,9 @@
       <c r="C40" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
@@ -1348,7 +1426,9 @@
       <c r="C41" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>119</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
@@ -1360,7 +1440,9 @@
       <c r="C42" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
@@ -1372,7 +1454,9 @@
       <c r="C43" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>123</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
@@ -1384,7 +1468,9 @@
       <c r="C44" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>125</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
@@ -1396,7 +1482,9 @@
       <c r="C45" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>127</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
@@ -1408,7 +1496,9 @@
       <c r="C46" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>129</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
@@ -1420,7 +1510,9 @@
       <c r="C47" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
@@ -1432,7 +1524,9 @@
       <c r="C48" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>133</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
@@ -1444,7 +1538,9 @@
       <c r="C49" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>135</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
@@ -1456,7 +1552,9 @@
       <c r="C50" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>137</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
@@ -1468,7 +1566,9 @@
       <c r="C51" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
@@ -1480,7 +1580,9 @@
       <c r="C52" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>141</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
@@ -1492,7 +1594,9 @@
       <c r="C53" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>143</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
@@ -1504,7 +1608,9 @@
       <c r="C54" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>145</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
@@ -1516,7 +1622,9 @@
       <c r="C55" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>147</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
@@ -1528,7 +1636,9 @@
       <c r="C56" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>149</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
@@ -1540,7 +1650,9 @@
       <c r="C57" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>151</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
@@ -1552,7 +1664,9 @@
       <c r="C58" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
@@ -1564,7 +1678,9 @@
       <c r="C59" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
@@ -1576,7 +1692,9 @@
       <c r="C60" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>157</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
@@ -1588,7 +1706,9 @@
       <c r="C61" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>159</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
@@ -1600,7 +1720,9 @@
       <c r="C62" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>161</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
@@ -1612,7 +1734,9 @@
       <c r="C63" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>163</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
@@ -1624,7 +1748,9 @@
       <c r="C64" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>165</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
@@ -1636,7 +1762,9 @@
       <c r="C65" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>167</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
@@ -1648,7 +1776,9 @@
       <c r="C66" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>169</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
@@ -1660,7 +1790,9 @@
       <c r="C67" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>171</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
@@ -1672,7 +1804,9 @@
       <c r="C68" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>173</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
@@ -1684,7 +1818,9 @@
       <c r="C69" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/fhir/ig/tei/0.2.1/CodeSystem-CSEspecialidadMed.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-CSEspecialidadMed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="192">
   <si>
     <t>Property</t>
   </si>
@@ -120,424 +120,475 @@
     <t>Count</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ANATOMÍA PATOLÓGICA</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ANESTESIOLOGÍA</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CARDIOLOGÍA</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CIRUGÍA GENERAL</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CIRUGÍA DE CABEZA, CUELLO Y MAXILOFACIAL</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CIRUGÍA CARDIOVASCULAR</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CIRUGÍA DE TÓRAX</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>CIRUGÍA PLÁSTICA Y REPARADORA</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CIRUGÍA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>CIRUGÍA VASCULAR PERIFÉRICA</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>COLOPROCTOLOGÍA</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>DERMATOLOGÍA</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>DIABETOLOGÍA</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>ENDOCRINOLOGÍA ADULTO</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>ENDOCRINOLOGÍA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>ENFERMEDADES RESPIRATORIAS DEL ADULTO (BRONCOPULMONAR)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>ENFERMEDADES RESPIRATORIAS PEDIÁTRICAS (BRONCOPULMONAR PEDIATRICO)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>GASTROENTEROLOGÍA ADULTO</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>GASTROENTEROLOGÍA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>GENÉTICA CLÍNICA</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>GERIATRÍA</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>GINECOLOGÍA PEDIÁTRICA Y DE LA ADOLESCENCIA</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>HEMATOLOGÍA</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>IMAGENOLOGÍA</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>INFECTOLOGÍA</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>INMUNOLOGÍA</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>LABORATORIO CLÍNICO</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>MEDICINA FAMILIAR</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>MEDICINA FÍSICA Y REHABILITACIÓN (FISIATRIA ADULTO)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>MEDICINA INTERNA</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>MEDICINA INTENSIVA ADULTO</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>MEDICINA INTENSIVA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>MEDICINA LEGAL</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>MEDICINA MATERNO INFANTIL</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>MEDICINA NUCLEAR</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>MEDICINA DE URGENCIA</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>NEFROLOGÍA ADULTO</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>NEFROLOGÍA PEDIÁTRICO</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>NEONATOLOGÍA</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>NEUROCIRUGÍA</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>NEUROLOGÍA ADULTO</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>NEUROLOGÍA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>OBSTETRICIA Y GINECOLOGÍA</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>OFTALMOLOGÍA</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>ONCOLOGÍA MÉDICA</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>OTORRINOLARINGOLOGÍA</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>PEDIATRÍA</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>PSIQUIATRÍA ADULTO</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>PSIQUIATRÍA PEDIÁTRICA Y DE LA ADOLESCENCIA</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>RADIOTERAPIA ONCOLÓGICA</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>REUMATOLOGÍA</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>SALUD PÚBLICA</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>TRAUMATOLOGÍA Y ORTOPEDIA</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>UROLOGÍA</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>CARDIOLOGÍA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>CIRUGÍA DIGESTIVA</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>CIRUGÍA PLASTICA Y REPARADORA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>GINECOLOGÍA</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>HEMATO-ONCOLOGÍA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>INFECTOLOGÍA PEDIATRICA</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>MEDICINA FAMILIAR DEL NIÑO</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>MEDICINA FISICA Y REHABILITACIÓN PEDIÁTRICA (FISIATRIA PEDIATRICA)</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>NUTRIÓLOGO</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>NUTRIÓLOGO PEDIÁTRICO</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>REUMATOLOGÍA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>OBSTETRICIA</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>TRAUMATOLOGÍA Y ORTOPEDIA PEDIÁTRICA</t>
+  </si>
+  <si>
     <t>68</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ANATOMÍA PATOLÓGICA</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ANESTESIOLOGÍA</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CARDIOLOGÍA</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CIRUGÍA GENERAL</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CIRUGÍA DE CABEZA, CUELLO Y MAXILOFACIAL</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>CIRUGÍA CARDIOVASCULAR</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>CIRUGÍA DE TÓRAX</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>CIRUGÍA PLÁSTICA Y REPARADORA</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>CIRUGÍA PEDIÁTRICA</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>CIRUGÍA VASCULAR PERIFÉRICA</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>COLOPROCTOLOGÍA</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>DERMATOLOGÍA</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>DIABETOLOGÍA</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>ENDOCRINOLOGÍA ADULTO</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>ENDOCRINOLOGÍA PEDIÁTRICA</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>ENFERMEDADES RESPIRATORIAS DEL ADULTO (BRONCOPULMONAR)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>ENFERMEDADES RESPIRATORIAS PEDIÁTRICAS (BRONCOPULMONAR PEDIATRICO)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>GASTROENTEROLOGÍA ADULTO</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>GASTROENTEROLOGÍA PEDIÁTRICA</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>GENÉTICA CLÍNICA</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>GERIATRÍA</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>GINECOLOGÍA PEDIÁTRICA Y DE LA ADOLESCENCIA</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>HEMATOLOGÍA</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>IMAGENOLOGÍA</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>INFECTOLOGÍA</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>INMUNOLOGÍA</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>LABORATORIO CLÍNICO</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>MEDICINA FAMILIAR</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>MEDICINA FÍSICA Y REHABILITACIÓN (FISIATRIA ADULTO)</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>MEDICINA INTERNA</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>MEDICINA INTENSIVA ADULTO</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>MEDICINA INTENSIVA PEDIÁTRICA</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>MEDICINA LEGAL</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>MEDICINA MATERNO INFANTIL</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>MEDICINA NUCLEAR</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>MEDICINA DE URGENCIA</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>NEFROLOGÍA ADULTO</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>NEFROLOGÍA PEDIÁTRICO</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>NEONATOLOGÍA</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>NEUROCIRUGÍA</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>NEUROLOGÍA ADULTO</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>NEUROLOGÍA PEDIÁTRICA</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>OBSTETRICIA Y GINECOLOGÍA</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>OFTALMOLOGÍA</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>ONCOLOGÍA MÉDICA</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>OTORRINOLARINGOLOGÍA</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>PEDIATRÍA</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>PSIQUIATRÍA ADULTO</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>PSIQUIATRÍA PEDIÁTRICA Y DE LA ADOLESCENCIA</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>RADIOTERAPIA ONCOLÓGICA</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>REUMATOLOGÍA</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>SALUD PÚBLICA</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>TRAUMATOLOGÍA Y ORTOPEDIA</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>UROLOGÍA</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>CARDIOLOGÍA PEDIÁTRICA</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>CIRUGÍA DIGESTIVA</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>CIRUGÍA PLASTICA Y REPARADORA PEDIÁTRICA</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>GINECOLOGÍA</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>HEMATO-ONCOLOGÍA PEDIÁTRICA</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>INFECTOLOGÍA PEDIATRICA</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MEDICINA FAMILIAR DEL NIÑO</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>MEDICINA FISICA Y REHABILITACIÓN PEDIÁTRICA (FISIATRIA PEDIATRICA)</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>NUTRIÓLOGO</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>NUTRIÓLOGO PEDIÁTRICO</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>REUMATOLOGÍA PEDIÁTRICA</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>OBSTETRICIA</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>TRAUMATOLOGÍA Y ORTOPEDIA PEDIÁTRICA</t>
-  </si>
-  <si>
     <t>UROLOGÍA PEDIÁTRICA</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>GINECOLOGÍA ONCOLÓGICA</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>MASTOLOGÍA (CIRUGÍA DE LA MAMA)</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>MEDICINA PALEATIVA Y DE MANEJO DEL DOLOR</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>MEDICINA REPRODUCTIVA E INFERTILIDAD</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>MEDICINA DEL ADOLESCENTE</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>MEDICINA DEL DEPORTE</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>MICROBIOLOGÍA</t>
+  </si>
+  <si>
+    <t>NEURORRADIOLOGÍA</t>
+  </si>
+  <si>
+    <t>NEURORRADIOLÓGIA</t>
   </si>
 </sst>
 </file>
@@ -850,7 +901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1813,13 +1864,125 @@
         <v>40</v>
       </c>
       <c r="B69" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>174</v>
+      <c r="C77" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
